--- a/app/tests/subscription_export.xlsx
+++ b/app/tests/subscription_export.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-02 17:02:34</t>
+          <t>2025-11-02 21:24:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-04 17:02:34</t>
+          <t>2025-11-04 21:24:09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/app/tests/subscription_export.xlsx
+++ b/app/tests/subscription_export.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-02 21:24:09</t>
+          <t>2025-11-03 14:16:55</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,14 +491,14 @@
         <v>6000</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>7.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-04 21:24:09</t>
+          <t>2025-11-05 14:16:55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
